--- a/data/144/SHSE/OMX Index - Weekly.xlsx
+++ b/data/144/SHSE/OMX Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CFX3"/>
+  <dimension ref="A1:CFY3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11394,15 +11394,20 @@
       </c>
       <c r="CFV1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="CFW1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="CFW1" s="1" t="inlineStr">
+      <c r="CFX1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="CFX1" s="1" t="inlineStr">
+      <c r="CFY1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -17320,19 +17325,22 @@
         <v>2106.52</v>
       </c>
       <c r="CFU2" t="n">
-        <v>2107.36</v>
-      </c>
-      <c r="CFV2" t="inlineStr">
+        <v>2119.61</v>
+      </c>
+      <c r="CFV2" t="n">
+        <v>2132.52</v>
+      </c>
+      <c r="CFW2" t="inlineStr">
         <is>
           <t>OMXS30</t>
         </is>
       </c>
-      <c r="CFW2" t="inlineStr">
+      <c r="CFX2" t="inlineStr">
         <is>
           <t>Stockholm OMX 30 Index, Close Price</t>
         </is>
       </c>
-      <c r="CFX2" t="inlineStr">
+      <c r="CFY2" t="inlineStr">
         <is>
           <t>Index: 1986.09.30=100</t>
         </is>
@@ -23952,19 +23960,22 @@
         <v>843.65</v>
       </c>
       <c r="CFU3" t="n">
-        <v>862.41</v>
-      </c>
-      <c r="CFV3" t="inlineStr">
+        <v>868.08</v>
+      </c>
+      <c r="CFV3" t="n">
+        <v>875.95</v>
+      </c>
+      <c r="CFW3" t="inlineStr">
         <is>
           <t>OMXAFGX</t>
         </is>
       </c>
-      <c r="CFW3" t="inlineStr">
+      <c r="CFX3" t="inlineStr">
         <is>
           <t>Affarsvarlden General Index, Close Price</t>
         </is>
       </c>
-      <c r="CFX3" t="inlineStr">
+      <c r="CFY3" t="inlineStr">
         <is>
           <t>Index: 1995.12.29=100</t>
         </is>
